--- a/asm/charts/timing.xlsx
+++ b/asm/charts/timing.xlsx
@@ -3,12 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="24" documentId="11_F25DC773A252ABEACE02ECEB53D85E5E5BDE58A6" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{FFEB4616-E92D-4E98-9F9D-8E14E202C665}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44AB579-09E3-4D3E-9311-F22CC6722CB1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="time" sheetId="1" r:id="rId1"/>
+    <sheet name="h" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="time" sheetId="2" r:id="rId2"/>
+    <sheet name="Chart1" sheetId="4" r:id="rId3"/>
+    <sheet name="Chart2" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="107">
   <si>
     <t>AJ055.CanuH.log:</t>
   </si>
@@ -43,9 +46,6 @@
     <t>AJ055.MiniH.log:</t>
   </si>
   <si>
-    <t>AJ055.MiniKW.log:</t>
-  </si>
-  <si>
     <t>AJ055.MiniL.log:</t>
   </si>
   <si>
@@ -184,9 +184,6 @@
     <t>sim5M.MiniH.log:</t>
   </si>
   <si>
-    <t>sim5M.MiniKW.log:</t>
-  </si>
-  <si>
     <t>sim5M.MiniL.log:</t>
   </si>
   <si>
@@ -260,15 +257,117 @@
   </si>
   <si>
     <t>sum/seconds</t>
+  </si>
+  <si>
+    <t>miniH.p1</t>
+  </si>
+  <si>
+    <t>miniH.p2</t>
+  </si>
+  <si>
+    <t>miniH.p3</t>
+  </si>
+  <si>
+    <t>CanuH.p1</t>
+  </si>
+  <si>
+    <t>CanuH</t>
+  </si>
+  <si>
+    <t>CanuL</t>
+  </si>
+  <si>
+    <t>ColorMap</t>
+  </si>
+  <si>
+    <t>Metasm</t>
+  </si>
+  <si>
+    <t>MiniCH</t>
+  </si>
+  <si>
+    <t>MiniCL</t>
+  </si>
+  <si>
+    <t>MiniH</t>
+  </si>
+  <si>
+    <t>MiniL</t>
+  </si>
+  <si>
+    <t>SGAH</t>
+  </si>
+  <si>
+    <t>SGAL</t>
+  </si>
+  <si>
+    <t>SoDe2H</t>
+  </si>
+  <si>
+    <t>SoDe2L</t>
+  </si>
+  <si>
+    <t>SpadesH</t>
+  </si>
+  <si>
+    <t>SpadesL</t>
+  </si>
+  <si>
+    <t>SpadesLRL</t>
+  </si>
+  <si>
+    <t>AJ055</t>
+  </si>
+  <si>
+    <t>AJ218</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Pipeline</t>
+  </si>
+  <si>
+    <t>Runtime in Seconds</t>
+  </si>
+  <si>
+    <t>SIM5M</t>
+  </si>
+  <si>
+    <t>SIM25M</t>
+  </si>
+  <si>
+    <t>AJ292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*the values for miniH.p1, miniH.p2, miniH.p3 and canuH.p1 are only for a single round of polishing using Pilon </t>
+  </si>
+  <si>
+    <t>*p1 refers to the first round, p2 second round and p3 third round</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -283,7 +382,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -291,12 +390,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -312,6 +438,3389 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Runtime in Seconds</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>time!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AJ055</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>time!$A$5:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>CanuH</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CanuL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Metasm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MiniCH</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MiniCL</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MiniH</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MiniL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SGAH</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SGAL</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SoDe2H</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SoDe2L</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SpadesH</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>SpadesL</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SpadesLRL</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>miniH.p1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>miniH.p2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>miniH.p3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>CanuH.p1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>time!$B$5:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>5808</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4070</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2535.8200000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1799.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>548.54999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>260.63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>633.79</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>318.66000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>253.47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1074.6300000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1648.37</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2033.48</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2506.9300000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4808.8600000000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6024</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>414.69000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7E45-403F-ADE0-805D8D64E7C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>time!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AJ218</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>time!$A$5:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>CanuH</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CanuL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Metasm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MiniCH</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MiniCL</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MiniH</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MiniL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SGAH</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SGAL</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SoDe2H</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SoDe2L</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SpadesH</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>SpadesL</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SpadesLRL</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>miniH.p1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>miniH.p2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>miniH.p3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>CanuH.p1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>time!$C$5:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>8784</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>720.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1631.9099999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1412.43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>154.78</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>131.87</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1386.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>541.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>977.71</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90.32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1326.15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>862.37</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1389.88</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2507.1800000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2945.96</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3788.15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>411.79999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7E45-403F-ADE0-805D8D64E7C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>time!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AJ292</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>time!$A$5:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>CanuH</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CanuL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Metasm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MiniCH</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MiniCL</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MiniH</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MiniL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SGAH</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SGAL</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SoDe2H</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SoDe2L</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SpadesH</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>SpadesL</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SpadesLRL</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>miniH.p1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>miniH.p2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>miniH.p3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>CanuH.p1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>time!$D$5:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4881</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3306.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1072.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1957.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>595.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>227.92000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>612.74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>316.36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>279.48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100.32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>952.26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>877.83</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1298.93</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1688.3600000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2114.9500000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2755.84</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>395.33000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7E45-403F-ADE0-805D8D64E7C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>time!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIM5M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>time!$A$5:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>CanuH</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CanuL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Metasm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MiniCH</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MiniCL</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MiniH</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MiniL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SGAH</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SGAL</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SoDe2H</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SoDe2L</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SpadesH</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>SpadesL</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SpadesLRL</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>miniH.p1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>miniH.p2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>miniH.p3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>CanuH.p1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>time!$E$5:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4517</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3331.61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>756.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1742.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>457.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>118.60999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>550.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>890.33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>222.27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>235.28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1097.56</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>606.83000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2208.62</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>264.14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>353.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>458.90999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7E45-403F-ADE0-805D8D64E7C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>time!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIM25M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>time!$A$5:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>CanuH</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CanuL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Metasm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MiniCH</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MiniCL</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MiniH</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MiniL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SGAH</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SGAL</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SoDe2H</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SoDe2L</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SpadesH</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>SpadesL</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SpadesLRL</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>miniH.p1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>miniH.p2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>miniH.p3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>CanuH.p1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>time!$F$5:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>33873</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18906</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3740</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13984.720000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3227.38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>516.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>269.54000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3698</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1718.59</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1856.94</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1347.19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7775</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5895</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22245</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2063.41</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2497.8199999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2855.6299999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>317.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-7E45-403F-ADE0-805D8D64E7C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="500"/>
+        <c:axId val="466141536"/>
+        <c:axId val="466140224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="466141536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466140224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="466140224"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:min val="32"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="1400">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Time / s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="466141536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Runtime in Seconds</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>time!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AJ055</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>time!$A$5:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>CanuH</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CanuL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Metasm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MiniCH</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MiniCL</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MiniH</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MiniL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SGAH</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SGAL</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SoDe2H</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SoDe2L</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SpadesH</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>SpadesL</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SpadesLRL</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>miniH.p1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>miniH.p2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>miniH.p3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>CanuH.p1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>time!$B$5:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>5808</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4070</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2535.8200000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1799.1999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>548.54999999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>260.63</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69.88</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>633.79</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>318.66000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>253.47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>94.1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1074.6300000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1648.37</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2033.48</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2506.9300000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4808.8600000000006</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6024</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>414.69000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EF9F-4F70-A963-EE4C499097FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>time!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AJ218</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>time!$A$5:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>CanuH</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CanuL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Metasm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MiniCH</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MiniCL</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MiniH</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MiniL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SGAH</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SGAL</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SoDe2H</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SoDe2L</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SpadesH</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>SpadesL</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SpadesLRL</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>miniH.p1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>miniH.p2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>miniH.p3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>CanuH.p1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>time!$C$5:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>8784</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>720.54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1631.9099999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1412.43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>154.78</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>131.87</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1386.01</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>541.09</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>977.71</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90.32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1326.15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>862.37</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1389.88</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2507.1800000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2945.96</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3788.15</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>411.79999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EF9F-4F70-A963-EE4C499097FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>time!$D$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AJ292</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>time!$A$5:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>CanuH</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CanuL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Metasm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MiniCH</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MiniCL</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MiniH</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MiniL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SGAH</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SGAL</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SoDe2H</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SoDe2L</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SpadesH</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>SpadesL</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SpadesLRL</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>miniH.p1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>miniH.p2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>miniH.p3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>CanuH.p1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>time!$D$5:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4881</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3306.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1072.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1957.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>595.62</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>227.92000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>612.74</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>316.36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>279.48</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100.32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>952.26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>877.83</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1298.93</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1688.3600000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2114.9500000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2755.84</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>395.33000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EF9F-4F70-A963-EE4C499097FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>time!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIM5M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>time!$A$5:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>CanuH</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CanuL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Metasm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MiniCH</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MiniCL</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MiniH</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MiniL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SGAH</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SGAL</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SoDe2H</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SoDe2L</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SpadesH</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>SpadesL</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SpadesLRL</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>miniH.p1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>miniH.p2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>miniH.p3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>CanuH.p1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>time!$E$5:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>4517</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3331.61</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>756.71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1742.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>457.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>118.60999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50.94</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>550.35</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>890.33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>222.27</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>235.28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1097.56</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>606.83000000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2208.62</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>264.14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>353.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>458.90999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77.59</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EF9F-4F70-A963-EE4C499097FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>time!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SIM25M</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>time!$A$5:$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>CanuH</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CanuL</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Metasm</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>MiniCH</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>MiniCL</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>MiniH</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>MiniL</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>SGAH</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>SGAL</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>SoDe2H</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>SoDe2L</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>SpadesH</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>SpadesL</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>SpadesLRL</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>miniH.p1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>miniH.p2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>miniH.p3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>CanuH.p1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>time!$F$5:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>33873</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18906</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3740</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13984.720000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3227.38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>516.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>269.54000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3698</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1718.59</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1856.94</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1347.19</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7775</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5895</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22245</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2063.41</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2497.8199999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2855.6299999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>317.06</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EF9F-4F70-A963-EE4C499097FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="619029368"/>
+        <c:axId val="619038224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="619029368"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="619038224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="619038224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU" sz="1400">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Time /s</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="619029368"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{62579507-20EC-490D-BED8-0C148E3FF3E6}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="78" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <webPublishItems count="1">
+    <webPublishItem id="4618" divId="timing_4618" sourceType="chart" destinationFile="F:\hasindu2008.git\arash_paper\asm\charts\timing_graph.htm" autoRepublish="1"/>
+  </webPublishItems>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{404D5144-3A31-495E-A639-BD8D2F378CE5}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="78" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <webPublishItems count="1">
+    <webPublishItem id="6869" divId="timing_6869" sourceType="chart" destinationFile="F:\hasindu2008.git\arash_paper\asm\charts\timing_stacked_graph.htm"/>
+  </webPublishItems>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="10127436" cy="6073205"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B563AA7-1804-4BAA-92AA-C9954F2CEBBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9297051" cy="6073205"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9EC960B-CD72-4420-A0A3-715894F28E6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -577,1545 +4086,2246 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V84"/>
+  <dimension ref="B1:W105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="V69" sqref="V69"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" customWidth="1"/>
+    <col min="2" max="2" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="V1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="W1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>5808</v>
       </c>
-      <c r="V2">
-        <f>SUM(B2:U2)</f>
+      <c r="W2">
+        <f>SUM(C2:V2)</f>
         <v>5808</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+    <row r="3" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>4070</v>
       </c>
-      <c r="V3">
-        <f t="shared" ref="V3:V66" si="0">SUM(B3:U3)</f>
+      <c r="W3">
+        <f t="shared" ref="W3:W78" si="0">SUM(C3:V3)</f>
         <v>4070</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+    <row r="4" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>2.63</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>8704</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>12533</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>555.91999999999996</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <f t="shared" si="0"/>
         <v>21795.549999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
+    <row r="5" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>2535.8200000000002</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <f t="shared" si="0"/>
         <v>2535.8200000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
+    <row r="6" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>46.23</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1584.05</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>65.040000000000006</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>3.31</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>3.22</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>97.35</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <f t="shared" si="0"/>
         <v>1799.1999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>15.71</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>386.93</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>39.46</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>10.95</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>4.66</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>90.84</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <f t="shared" si="0"/>
         <v>548.54999999999995</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>46.55</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>3.22</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>4.43</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>206.43</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <f t="shared" si="0"/>
         <v>260.63</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>3453.36</v>
-      </c>
       <c r="C9">
-        <v>13.38</v>
+        <v>22.46</v>
       </c>
       <c r="D9">
-        <v>12.83</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="E9">
-        <v>12.07</v>
+        <v>2.16</v>
       </c>
       <c r="F9">
-        <v>9.0500000000000007</v>
-      </c>
-      <c r="G9">
-        <v>9.33</v>
-      </c>
-      <c r="V9">
-        <f t="shared" si="0"/>
-        <v>3510.0200000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>22.46</v>
-      </c>
-      <c r="C10">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="D10">
-        <v>2.16</v>
-      </c>
-      <c r="E10">
         <v>44.11</v>
       </c>
-      <c r="V10">
+      <c r="W9">
         <f t="shared" si="0"/>
         <v>69.88</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
+    <row r="10" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
         <v>51.9</v>
       </c>
-      <c r="C11">
+      <c r="D10">
         <v>136.02000000000001</v>
       </c>
-      <c r="D11">
+      <c r="E10">
         <v>9.69</v>
       </c>
-      <c r="E11">
+      <c r="F10">
         <v>4.3099999999999996</v>
       </c>
-      <c r="F11">
+      <c r="G10">
         <v>2305.0100000000002</v>
       </c>
-      <c r="G11">
+      <c r="H10">
         <v>8.16</v>
       </c>
-      <c r="H11">
+      <c r="I10">
         <v>55.5</v>
       </c>
-      <c r="I11">
+      <c r="J10">
         <v>6.51</v>
       </c>
-      <c r="J11">
+      <c r="K10">
         <v>4.25</v>
       </c>
-      <c r="K11">
+      <c r="L10">
         <v>2227.5100000000002</v>
       </c>
-      <c r="L11">
+      <c r="M10">
         <v>69.48</v>
       </c>
-      <c r="M11">
+      <c r="N10">
         <v>494.61</v>
       </c>
-      <c r="N11">
+      <c r="O10">
         <v>47.89</v>
       </c>
-      <c r="O11">
+      <c r="P10">
         <v>14.52</v>
       </c>
-      <c r="P11">
+      <c r="Q10">
         <v>588.64</v>
       </c>
-      <c r="Q11">
+      <c r="R10">
         <v>5.91</v>
       </c>
-      <c r="R11">
+      <c r="S10">
         <v>50.67</v>
       </c>
-      <c r="S11">
+      <c r="T10">
         <v>5.82</v>
       </c>
-      <c r="T11">
+      <c r="U10">
         <v>3.57</v>
       </c>
-      <c r="U11">
+      <c r="V10">
         <v>348.72</v>
       </c>
-      <c r="V11">
+      <c r="W10">
         <f t="shared" si="0"/>
         <v>6438.6900000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
+    <row r="11" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
         <v>633.79</v>
       </c>
-      <c r="V12">
+      <c r="W11">
         <f t="shared" si="0"/>
         <v>633.79</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
+    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12">
         <v>318.66000000000003</v>
       </c>
-      <c r="V13">
+      <c r="W12">
         <f t="shared" si="0"/>
         <v>318.66000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
+    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
         <v>253.47</v>
       </c>
-      <c r="V14">
+      <c r="W13">
         <f t="shared" si="0"/>
         <v>253.47</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
+    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
         <v>94.1</v>
       </c>
-      <c r="V15">
+      <c r="W14">
         <f t="shared" si="0"/>
         <v>94.1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
+    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
         <v>1074.6300000000001</v>
       </c>
-      <c r="V16">
+      <c r="W15">
         <f t="shared" si="0"/>
         <v>1074.6300000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
+    <row r="16" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
         <v>1648.37</v>
       </c>
-      <c r="V17">
+      <c r="W16">
         <f t="shared" si="0"/>
         <v>1648.37</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
         <v>2033.48</v>
       </c>
-      <c r="V18">
+      <c r="W17">
         <f t="shared" si="0"/>
         <v>2033.48</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18">
+        <f>SUM(C10:G10)</f>
+        <v>2506.9300000000003</v>
+      </c>
+      <c r="W18">
+        <f t="shared" si="0"/>
+        <v>2506.9300000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19">
+        <f>SUM(H10:L10)+C18</f>
+        <v>4808.8600000000006</v>
+      </c>
+      <c r="W19">
+        <f t="shared" si="0"/>
+        <v>4808.8600000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20">
+        <f>SUM(M10:Q10)+C19</f>
+        <v>6024</v>
+      </c>
+      <c r="W20">
+        <f t="shared" si="0"/>
+        <v>6024</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21">
+        <f>SUM(R10:V10)</f>
+        <v>414.69000000000005</v>
+      </c>
+      <c r="W21">
+        <f t="shared" si="0"/>
+        <v>414.69000000000005</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23">
         <v>8784</v>
       </c>
-      <c r="V20">
+      <c r="W23">
         <f t="shared" si="0"/>
         <v>8784</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24">
         <v>4077</v>
       </c>
-      <c r="V21">
+      <c r="W24">
         <f t="shared" si="0"/>
         <v>4077</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22">
+    <row r="26" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26">
         <v>720.54</v>
       </c>
-      <c r="V22">
+      <c r="W26">
         <f t="shared" si="0"/>
         <v>720.54</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23">
+    <row r="27" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27">
         <v>44.29</v>
       </c>
-      <c r="C23">
+      <c r="D27">
         <v>1444.84</v>
       </c>
-      <c r="D23">
+      <c r="E27">
         <v>63.56</v>
       </c>
-      <c r="E23">
+      <c r="F27">
         <v>3.22</v>
       </c>
-      <c r="F23">
+      <c r="G27">
         <v>2.4900000000000002</v>
       </c>
-      <c r="G23">
+      <c r="H27">
         <v>73.510000000000005</v>
       </c>
-      <c r="V23">
+      <c r="W27">
         <f t="shared" si="0"/>
         <v>1631.9099999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24">
+    <row r="28" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28">
         <v>112.52</v>
       </c>
-      <c r="C24">
+      <c r="D28">
         <v>1226.21</v>
       </c>
-      <c r="D24">
+      <c r="E28">
         <v>21.89</v>
       </c>
-      <c r="E24">
+      <c r="F28">
         <v>0.85</v>
       </c>
-      <c r="F24">
+      <c r="G28">
         <v>2.17</v>
       </c>
-      <c r="G24">
+      <c r="H28">
         <v>48.79</v>
       </c>
-      <c r="V24">
+      <c r="W28">
         <f t="shared" si="0"/>
         <v>1412.43</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25">
+    <row r="29" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29">
         <v>40.71</v>
       </c>
-      <c r="C25">
+      <c r="D29">
         <v>3.17</v>
       </c>
-      <c r="D25">
+      <c r="E29">
         <v>4.78</v>
       </c>
-      <c r="E25">
+      <c r="F29">
         <v>106.12</v>
       </c>
-      <c r="V25">
+      <c r="W29">
         <f t="shared" si="0"/>
         <v>154.78</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26">
+    <row r="30" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30">
         <v>25.63</v>
       </c>
-      <c r="C26">
+      <c r="D30">
         <v>2.74</v>
       </c>
-      <c r="D26">
+      <c r="E30">
         <v>2.56</v>
       </c>
-      <c r="E26">
+      <c r="F30">
         <v>100.94</v>
       </c>
-      <c r="V26">
+      <c r="W30">
         <f t="shared" si="0"/>
         <v>131.87</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27">
+    <row r="31" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31">
         <v>5.65</v>
       </c>
-      <c r="C27">
+      <c r="D31">
         <v>59.8</v>
       </c>
-      <c r="D27">
+      <c r="E31">
         <v>5.62</v>
       </c>
-      <c r="E27">
+      <c r="F31">
         <v>3.27</v>
       </c>
-      <c r="F27">
+      <c r="G31">
         <v>2432.84</v>
       </c>
-      <c r="G27">
+      <c r="H31">
         <v>6.25</v>
       </c>
-      <c r="H27">
+      <c r="I31">
         <v>55.73</v>
       </c>
-      <c r="I27">
+      <c r="J31">
         <v>8.02</v>
       </c>
-      <c r="J27">
+      <c r="K31">
         <v>4.4400000000000004</v>
       </c>
-      <c r="K27">
+      <c r="L31">
         <v>364.34</v>
       </c>
-      <c r="L27">
+      <c r="M31">
         <v>6.87</v>
       </c>
-      <c r="M27">
+      <c r="N31">
         <v>51.26</v>
       </c>
-      <c r="N27">
+      <c r="O31">
         <v>4.8499999999999996</v>
       </c>
-      <c r="O27">
+      <c r="P31">
         <v>3.12</v>
       </c>
-      <c r="P27">
+      <c r="Q31">
         <v>776.09</v>
       </c>
-      <c r="Q27">
+      <c r="R31">
         <v>16.760000000000002</v>
       </c>
-      <c r="R27">
+      <c r="S31">
         <v>38.97</v>
       </c>
-      <c r="S27">
+      <c r="T31">
         <v>4.51</v>
       </c>
-      <c r="T27">
+      <c r="U31">
         <v>3.1</v>
       </c>
-      <c r="U27">
+      <c r="V31">
         <v>348.46</v>
       </c>
-      <c r="V27">
+      <c r="W31">
         <f t="shared" si="0"/>
         <v>4199.9500000000007</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32">
         <v>1386.01</v>
       </c>
-      <c r="V28">
+      <c r="W32">
         <f t="shared" si="0"/>
         <v>1386.01</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33">
         <v>541.09</v>
       </c>
-      <c r="V29">
+      <c r="W33">
         <f t="shared" si="0"/>
         <v>541.09</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34">
         <v>977.71</v>
       </c>
-      <c r="V30">
+      <c r="W34">
         <f t="shared" si="0"/>
         <v>977.71</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35">
         <v>90.32</v>
       </c>
-      <c r="V31">
+      <c r="W35">
         <f t="shared" si="0"/>
         <v>90.32</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36">
         <v>1326.15</v>
       </c>
-      <c r="V32">
+      <c r="W36">
         <f t="shared" si="0"/>
         <v>1326.15</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37">
         <v>862.37</v>
       </c>
-      <c r="V33">
+      <c r="W37">
         <f t="shared" si="0"/>
         <v>862.37</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38">
         <v>1389.88</v>
       </c>
-      <c r="V34">
+      <c r="W38">
         <f t="shared" si="0"/>
         <v>1389.88</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B36">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39">
+        <f>SUM(C31:G31)</f>
+        <v>2507.1800000000003</v>
+      </c>
+      <c r="W39">
+        <f t="shared" ref="W39:W42" si="1">SUM(C39:V39)</f>
+        <v>2507.1800000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40">
+        <f>SUM(H31:L31)+C39</f>
+        <v>2945.96</v>
+      </c>
+      <c r="W40">
+        <f t="shared" si="1"/>
+        <v>2945.96</v>
+      </c>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41">
+        <f>SUM(M31:Q31)+C40</f>
+        <v>3788.15</v>
+      </c>
+      <c r="W41">
+        <f t="shared" si="1"/>
+        <v>3788.15</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42">
+        <f>SUM(R31:V31)</f>
+        <v>411.79999999999995</v>
+      </c>
+      <c r="W42">
+        <f t="shared" si="1"/>
+        <v>411.79999999999995</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44">
         <v>4881</v>
       </c>
-      <c r="V36">
+      <c r="W44">
         <f t="shared" si="0"/>
         <v>4881</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>33</v>
-      </c>
-      <c r="B37">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45">
         <v>3306.11</v>
       </c>
-      <c r="V37">
+      <c r="W45">
         <f t="shared" si="0"/>
         <v>3306.11</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47">
         <v>1072.75</v>
       </c>
-      <c r="V38">
+      <c r="W47">
         <f t="shared" si="0"/>
         <v>1072.75</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48">
         <v>40.270000000000003</v>
       </c>
-      <c r="C39">
+      <c r="D48">
         <v>1724.4</v>
       </c>
-      <c r="D39">
+      <c r="E48">
         <v>80.98</v>
       </c>
-      <c r="E39">
+      <c r="F48">
         <v>3.52</v>
       </c>
-      <c r="F39">
+      <c r="G48">
         <v>3.24</v>
       </c>
-      <c r="G39">
+      <c r="H48">
         <v>105.09</v>
       </c>
-      <c r="V39">
+      <c r="W48">
         <f t="shared" si="0"/>
         <v>1957.5</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>36</v>
-      </c>
-      <c r="B40">
+    <row r="49" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49">
         <v>18.27</v>
       </c>
-      <c r="C40">
+      <c r="D49">
         <v>488.63</v>
       </c>
-      <c r="D40">
+      <c r="E49">
         <v>29.01</v>
       </c>
-      <c r="E40">
+      <c r="F49">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F40">
+      <c r="G49">
         <v>2.6</v>
       </c>
-      <c r="G40">
+      <c r="H49">
         <v>55.96</v>
       </c>
-      <c r="V40">
+      <c r="W49">
         <f t="shared" si="0"/>
         <v>595.62</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>37</v>
-      </c>
-      <c r="B41">
+    <row r="50" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50">
         <v>92.81</v>
       </c>
-      <c r="C41">
+      <c r="D50">
         <v>4</v>
       </c>
-      <c r="D41">
+      <c r="E50">
         <v>5.27</v>
       </c>
-      <c r="E41">
+      <c r="F50">
         <v>125.84</v>
       </c>
-      <c r="V41">
+      <c r="W50">
         <f t="shared" si="0"/>
         <v>227.92000000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42">
+    <row r="51" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B51" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51">
         <v>19.23</v>
       </c>
-      <c r="C42">
+      <c r="D51">
         <v>0.94</v>
       </c>
-      <c r="D42">
+      <c r="E51">
         <v>1.99</v>
       </c>
-      <c r="E42">
+      <c r="F51">
         <v>52.14</v>
       </c>
-      <c r="V42">
+      <c r="W51">
         <f t="shared" si="0"/>
         <v>74.3</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43">
+    <row r="52" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52">
         <v>5.58</v>
       </c>
-      <c r="C43">
+      <c r="D52">
         <v>53.12</v>
       </c>
-      <c r="D43">
+      <c r="E52">
         <v>4.76</v>
       </c>
-      <c r="E43">
+      <c r="F52">
         <v>3.68</v>
       </c>
-      <c r="F43">
+      <c r="G52">
         <v>1621.22</v>
       </c>
-      <c r="G43">
+      <c r="H52">
         <v>6.83</v>
       </c>
-      <c r="H43">
+      <c r="I52">
         <v>41.95</v>
       </c>
-      <c r="I43">
+      <c r="J52">
         <v>4.95</v>
       </c>
-      <c r="J43">
+      <c r="K52">
         <v>3.86</v>
       </c>
-      <c r="K43">
+      <c r="L52">
         <v>369</v>
       </c>
-      <c r="L43">
+      <c r="M52">
         <v>5.25</v>
       </c>
-      <c r="M43">
+      <c r="N52">
         <v>43.03</v>
       </c>
-      <c r="N43">
+      <c r="O52">
         <v>4.78</v>
       </c>
-      <c r="O43">
+      <c r="P52">
         <v>3.42</v>
       </c>
-      <c r="P43">
+      <c r="Q52">
         <v>584.41</v>
       </c>
-      <c r="Q43">
+      <c r="R52">
         <v>5.72</v>
       </c>
-      <c r="R43">
+      <c r="S52">
         <v>70.25</v>
       </c>
-      <c r="S43">
+      <c r="T52">
         <v>5.15</v>
       </c>
-      <c r="T43">
+      <c r="U52">
         <v>3.4</v>
       </c>
-      <c r="U43">
+      <c r="V52">
         <v>310.81</v>
       </c>
-      <c r="V43">
+      <c r="W52">
         <f t="shared" si="0"/>
         <v>3151.17</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>40</v>
-      </c>
-      <c r="B44">
+    <row r="53" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C53">
         <v>612.74</v>
       </c>
-      <c r="V44">
+      <c r="W53">
         <f t="shared" si="0"/>
         <v>612.74</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>41</v>
-      </c>
-      <c r="B45">
+    <row r="54" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54">
         <v>316.36</v>
       </c>
-      <c r="V45">
+      <c r="W54">
         <f t="shared" si="0"/>
         <v>316.36</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>42</v>
-      </c>
-      <c r="B46">
+    <row r="55" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B55" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55">
         <v>279.48</v>
       </c>
-      <c r="V46">
+      <c r="W55">
         <f t="shared" si="0"/>
         <v>279.48</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>43</v>
-      </c>
-      <c r="B47">
+    <row r="56" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B56" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56">
         <v>100.32</v>
       </c>
-      <c r="V47">
+      <c r="W56">
         <f t="shared" si="0"/>
         <v>100.32</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>44</v>
-      </c>
-      <c r="B48">
+    <row r="57" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57">
         <v>952.26</v>
       </c>
-      <c r="V48">
+      <c r="W57">
         <f t="shared" si="0"/>
         <v>952.26</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>45</v>
-      </c>
-      <c r="B49">
+    <row r="58" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C58">
         <v>877.83</v>
       </c>
-      <c r="V49">
+      <c r="W58">
         <f t="shared" si="0"/>
         <v>877.83</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>46</v>
-      </c>
-      <c r="B50">
+    <row r="59" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B59" t="s">
+        <v>45</v>
+      </c>
+      <c r="C59">
         <v>1298.93</v>
       </c>
-      <c r="V50">
+      <c r="W59">
         <f t="shared" si="0"/>
         <v>1298.93</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52">
+    <row r="60" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B60" t="s">
+        <v>78</v>
+      </c>
+      <c r="C60">
+        <f>SUM(C52:G52)</f>
+        <v>1688.3600000000001</v>
+      </c>
+      <c r="W60">
+        <f t="shared" ref="W60:W63" si="2">SUM(C60:V60)</f>
+        <v>1688.3600000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61">
+        <f>SUM(H52:L52)+C60</f>
+        <v>2114.9500000000003</v>
+      </c>
+      <c r="W61">
+        <f t="shared" si="2"/>
+        <v>2114.9500000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B62" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62">
+        <f>SUM(M52:Q52)+C61</f>
+        <v>2755.84</v>
+      </c>
+      <c r="W62">
+        <f t="shared" si="2"/>
+        <v>2755.84</v>
+      </c>
+    </row>
+    <row r="63" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B63" t="s">
+        <v>81</v>
+      </c>
+      <c r="C63">
+        <f>SUM(R52:V52)</f>
+        <v>395.33000000000004</v>
+      </c>
+      <c r="W63">
+        <f t="shared" si="2"/>
+        <v>395.33000000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B65" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65">
         <v>4517</v>
       </c>
-      <c r="V52">
+      <c r="W65">
         <f t="shared" si="0"/>
         <v>4517</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53">
+    <row r="66" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B66" t="s">
+        <v>47</v>
+      </c>
+      <c r="C66">
         <v>3331.61</v>
       </c>
-      <c r="V53">
+      <c r="W66">
         <f t="shared" si="0"/>
         <v>3331.61</v>
       </c>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>49</v>
-      </c>
-      <c r="B54">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B67" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67">
         <v>2.2200000000000002</v>
       </c>
-      <c r="C54">
+      <c r="D67">
         <v>2189.6999999999998</v>
       </c>
-      <c r="D54">
+      <c r="E67">
         <v>2680.92</v>
       </c>
-      <c r="E54">
+      <c r="F67">
         <v>552.27</v>
       </c>
-      <c r="V54">
+      <c r="W67">
         <f t="shared" si="0"/>
         <v>5425.1100000000006</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>50</v>
-      </c>
-      <c r="B55">
+    <row r="68" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B68" t="s">
+        <v>49</v>
+      </c>
+      <c r="C68">
         <v>756.71</v>
       </c>
-      <c r="V55">
+      <c r="W68">
         <f t="shared" si="0"/>
         <v>756.71</v>
       </c>
     </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>51</v>
-      </c>
-      <c r="B56">
+    <row r="69" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69">
         <v>29.81</v>
       </c>
-      <c r="C56">
+      <c r="D69">
         <v>1551.69</v>
       </c>
-      <c r="D56">
+      <c r="E69">
         <v>72.47</v>
       </c>
-      <c r="E56">
+      <c r="F69">
         <v>8.08</v>
       </c>
-      <c r="F56">
+      <c r="G69">
         <v>3.09</v>
       </c>
-      <c r="G56">
+      <c r="H69">
         <v>77.66</v>
       </c>
-      <c r="V56">
+      <c r="W69">
         <f t="shared" si="0"/>
         <v>1742.8</v>
       </c>
     </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57">
+    <row r="70" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70">
         <v>15.92</v>
       </c>
-      <c r="C57">
+      <c r="D70">
         <v>371.41</v>
       </c>
-      <c r="D57">
+      <c r="E70">
         <v>23.15</v>
       </c>
-      <c r="E57">
+      <c r="F70">
         <v>3.31</v>
       </c>
-      <c r="F57">
+      <c r="G70">
         <v>2.59</v>
       </c>
-      <c r="G57">
+      <c r="H70">
         <v>40.71</v>
       </c>
-      <c r="V57">
+      <c r="W70">
         <f t="shared" si="0"/>
         <v>457.09</v>
       </c>
     </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>53</v>
-      </c>
-      <c r="B58">
+    <row r="71" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B71" t="s">
+        <v>52</v>
+      </c>
+      <c r="C71">
         <v>38.76</v>
       </c>
-      <c r="C58">
+      <c r="D71">
         <v>6.86</v>
       </c>
-      <c r="D58">
+      <c r="E71">
         <v>4.1399999999999997</v>
       </c>
-      <c r="E58">
+      <c r="F71">
         <v>68.849999999999994</v>
       </c>
-      <c r="V58">
+      <c r="W71">
         <f t="shared" si="0"/>
         <v>118.60999999999999</v>
       </c>
     </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>54</v>
-      </c>
-      <c r="B59">
-        <v>3279.05</v>
-      </c>
-      <c r="C59">
-        <v>14.3</v>
-      </c>
-      <c r="D59">
-        <v>11.08</v>
-      </c>
-      <c r="E59">
-        <v>12.02</v>
-      </c>
-      <c r="F59">
-        <v>7.32</v>
-      </c>
-      <c r="G59">
-        <v>7.73</v>
-      </c>
-      <c r="V59">
-        <f t="shared" si="0"/>
-        <v>3331.5000000000005</v>
-      </c>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>55</v>
-      </c>
-      <c r="B60">
+    <row r="72" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B72" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72">
         <v>16.510000000000002</v>
       </c>
-      <c r="C60">
+      <c r="D72">
         <v>1.51</v>
       </c>
-      <c r="D60">
+      <c r="E72">
         <v>1.68</v>
       </c>
-      <c r="E60">
+      <c r="F72">
         <v>31.24</v>
       </c>
-      <c r="V60">
+      <c r="W72">
         <f t="shared" si="0"/>
         <v>50.94</v>
       </c>
     </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>56</v>
-      </c>
-      <c r="B61">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B73" t="s">
+        <v>54</v>
+      </c>
+      <c r="C73">
         <v>5.46</v>
       </c>
-      <c r="C61">
+      <c r="D73">
         <v>39.909999999999997</v>
       </c>
-      <c r="D61">
+      <c r="E73">
         <v>4.57</v>
       </c>
-      <c r="E61">
+      <c r="F73">
         <v>2.54</v>
       </c>
-      <c r="F61">
+      <c r="G73">
         <v>211.66</v>
       </c>
-      <c r="G61">
+      <c r="H73">
         <v>4.92</v>
       </c>
-      <c r="H61">
+      <c r="I73">
         <v>38.75</v>
       </c>
-      <c r="I61">
+      <c r="J73">
         <v>6.78</v>
       </c>
-      <c r="J61">
+      <c r="K73">
         <v>3.13</v>
       </c>
-      <c r="K61">
+      <c r="L73">
         <v>36.08</v>
       </c>
-      <c r="L61">
+      <c r="M73">
         <v>4.96</v>
       </c>
-      <c r="M61">
+      <c r="N73">
         <v>50.99</v>
       </c>
-      <c r="N61">
+      <c r="O73">
         <v>5.18</v>
       </c>
-      <c r="O61">
+      <c r="P73">
         <v>2.83</v>
       </c>
-      <c r="P61">
+      <c r="Q73">
         <v>41.15</v>
       </c>
-      <c r="Q61">
+      <c r="R73">
         <v>5.57</v>
       </c>
-      <c r="R61">
+      <c r="S73">
         <v>36.53</v>
       </c>
-      <c r="S61">
+      <c r="T73">
         <v>4.47</v>
       </c>
-      <c r="T61">
+      <c r="U73">
         <v>3.02</v>
       </c>
-      <c r="U61">
+      <c r="V73">
         <v>28</v>
       </c>
-      <c r="V61">
+      <c r="W73">
         <f t="shared" si="0"/>
         <v>536.49999999999989</v>
       </c>
     </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>57</v>
-      </c>
-      <c r="B62">
+    <row r="74" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B74" t="s">
+        <v>55</v>
+      </c>
+      <c r="C74">
         <v>550.35</v>
       </c>
-      <c r="V62">
+      <c r="W74">
         <f t="shared" si="0"/>
         <v>550.35</v>
       </c>
     </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>58</v>
-      </c>
-      <c r="B63">
+    <row r="75" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B75" t="s">
+        <v>56</v>
+      </c>
+      <c r="C75">
         <v>890.33</v>
       </c>
-      <c r="V63">
+      <c r="W75">
         <f t="shared" si="0"/>
         <v>890.33</v>
       </c>
     </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>59</v>
-      </c>
-      <c r="B64">
+    <row r="76" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B76" t="s">
+        <v>57</v>
+      </c>
+      <c r="C76">
         <v>222.27</v>
       </c>
-      <c r="V64">
+      <c r="W76">
         <f t="shared" si="0"/>
         <v>222.27</v>
       </c>
     </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>60</v>
-      </c>
-      <c r="B65">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B77" t="s">
+        <v>58</v>
+      </c>
+      <c r="C77">
         <v>235.28</v>
       </c>
-      <c r="V65">
+      <c r="W77">
         <f t="shared" si="0"/>
         <v>235.28</v>
       </c>
     </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>61</v>
-      </c>
-      <c r="B66">
+    <row r="78" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B78" t="s">
+        <v>59</v>
+      </c>
+      <c r="C78">
         <v>1097.56</v>
       </c>
-      <c r="V66">
+      <c r="W78">
         <f t="shared" si="0"/>
         <v>1097.56</v>
       </c>
     </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+    <row r="79" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B79" t="s">
+        <v>60</v>
+      </c>
+      <c r="C79">
+        <v>606.83000000000004</v>
+      </c>
+      <c r="W79">
+        <f t="shared" ref="W79:W105" si="3">SUM(C79:V79)</f>
+        <v>606.83000000000004</v>
+      </c>
+    </row>
+    <row r="80" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B80" t="s">
+        <v>61</v>
+      </c>
+      <c r="C80">
+        <v>2208.62</v>
+      </c>
+      <c r="W80">
+        <f t="shared" si="3"/>
+        <v>2208.62</v>
+      </c>
+    </row>
+    <row r="81" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B81" t="s">
+        <v>78</v>
+      </c>
+      <c r="C81">
+        <f>SUM(C73:G73)</f>
+        <v>264.14</v>
+      </c>
+      <c r="W81">
+        <f t="shared" si="3"/>
+        <v>264.14</v>
+      </c>
+    </row>
+    <row r="82" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B82" t="s">
+        <v>79</v>
+      </c>
+      <c r="C82">
+        <f>SUM(H73:L73)+C81</f>
+        <v>353.79999999999995</v>
+      </c>
+      <c r="W82">
+        <f t="shared" si="3"/>
+        <v>353.79999999999995</v>
+      </c>
+    </row>
+    <row r="83" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B83" t="s">
+        <v>80</v>
+      </c>
+      <c r="C83">
+        <f>SUM(M73:Q73)+C82</f>
+        <v>458.90999999999997</v>
+      </c>
+      <c r="W83">
+        <f t="shared" si="3"/>
+        <v>458.90999999999997</v>
+      </c>
+    </row>
+    <row r="84" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B84" t="s">
+        <v>81</v>
+      </c>
+      <c r="C84">
+        <f>SUM(R73:V73)</f>
+        <v>77.59</v>
+      </c>
+      <c r="W84">
+        <f t="shared" si="3"/>
+        <v>77.59</v>
+      </c>
+    </row>
+    <row r="86" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B86" t="s">
         <v>62</v>
       </c>
-      <c r="B67">
-        <v>606.83000000000004</v>
-      </c>
-      <c r="V67">
-        <f t="shared" ref="V67:V84" si="1">SUM(B67:U67)</f>
-        <v>606.83000000000004</v>
-      </c>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+      <c r="C86">
+        <v>33873</v>
+      </c>
+      <c r="W86">
+        <f t="shared" si="3"/>
+        <v>33873</v>
+      </c>
+    </row>
+    <row r="87" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B87" t="s">
         <v>63</v>
       </c>
-      <c r="B68">
-        <v>2208.62</v>
-      </c>
-      <c r="V68">
-        <f t="shared" si="1"/>
-        <v>2208.62</v>
-      </c>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+      <c r="C87">
+        <v>18906</v>
+      </c>
+      <c r="W87">
+        <f t="shared" si="3"/>
+        <v>18906</v>
+      </c>
+    </row>
+    <row r="89" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B89" t="s">
         <v>64</v>
       </c>
-      <c r="B70">
-        <v>33873</v>
-      </c>
-      <c r="V70">
-        <f t="shared" si="1"/>
-        <v>33873</v>
-      </c>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+      <c r="C89">
+        <v>3740</v>
+      </c>
+      <c r="W89">
+        <f t="shared" si="3"/>
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="90" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B90" t="s">
         <v>65</v>
       </c>
-      <c r="B71">
-        <v>18906</v>
-      </c>
-      <c r="V71">
-        <f t="shared" si="1"/>
-        <v>18906</v>
-      </c>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+      <c r="C90">
+        <v>133.22999999999999</v>
+      </c>
+      <c r="D90">
+        <v>12975</v>
+      </c>
+      <c r="E90">
+        <v>501.04</v>
+      </c>
+      <c r="F90">
+        <v>46.6</v>
+      </c>
+      <c r="G90">
+        <v>13.65</v>
+      </c>
+      <c r="H90">
+        <v>315.2</v>
+      </c>
+      <c r="W90">
+        <f t="shared" si="3"/>
+        <v>13984.720000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B91" t="s">
         <v>66</v>
       </c>
-      <c r="B72">
-        <v>3740</v>
-      </c>
-      <c r="V72">
-        <f t="shared" si="1"/>
-        <v>3740</v>
-      </c>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+      <c r="C91">
+        <v>59.92</v>
+      </c>
+      <c r="D91">
+        <v>2910.25</v>
+      </c>
+      <c r="E91">
+        <v>90.75</v>
+      </c>
+      <c r="F91">
+        <v>12.07</v>
+      </c>
+      <c r="G91">
+        <v>7.93</v>
+      </c>
+      <c r="H91">
+        <v>146.46</v>
+      </c>
+      <c r="W91">
+        <f t="shared" si="3"/>
+        <v>3227.38</v>
+      </c>
+    </row>
+    <row r="92" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B92" t="s">
         <v>67</v>
       </c>
-      <c r="B73">
-        <v>133.22999999999999</v>
-      </c>
-      <c r="C73">
-        <v>12975</v>
-      </c>
-      <c r="D73">
-        <v>501.04</v>
-      </c>
-      <c r="E73">
-        <v>46.6</v>
-      </c>
-      <c r="F73">
-        <v>13.65</v>
-      </c>
-      <c r="G73">
-        <v>315.2</v>
-      </c>
-      <c r="V73">
-        <f t="shared" si="1"/>
-        <v>13984.720000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+      <c r="C92">
+        <v>141.83000000000001</v>
+      </c>
+      <c r="D92">
+        <v>23.93</v>
+      </c>
+      <c r="E92">
+        <v>14.56</v>
+      </c>
+      <c r="F92">
+        <v>335.78</v>
+      </c>
+      <c r="W92">
+        <f t="shared" si="3"/>
+        <v>516.1</v>
+      </c>
+    </row>
+    <row r="93" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B93" t="s">
         <v>68</v>
       </c>
-      <c r="B74">
-        <v>59.92</v>
-      </c>
-      <c r="C74">
-        <v>2910.25</v>
-      </c>
-      <c r="D74">
-        <v>90.75</v>
-      </c>
-      <c r="E74">
-        <v>12.07</v>
-      </c>
-      <c r="F74">
+      <c r="C93">
+        <v>69.61</v>
+      </c>
+      <c r="D93">
         <v>7.93</v>
       </c>
-      <c r="G74">
-        <v>146.46</v>
-      </c>
-      <c r="V74">
-        <f t="shared" si="1"/>
-        <v>3227.38</v>
-      </c>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+      <c r="E93">
+        <v>10.48</v>
+      </c>
+      <c r="F93">
+        <v>181.52</v>
+      </c>
+      <c r="W93">
+        <f t="shared" si="3"/>
+        <v>269.54000000000002</v>
+      </c>
+    </row>
+    <row r="94" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B94" t="s">
         <v>69</v>
       </c>
-      <c r="B75">
-        <v>141.83000000000001</v>
-      </c>
-      <c r="C75">
-        <v>23.93</v>
-      </c>
-      <c r="D75">
-        <v>14.56</v>
-      </c>
-      <c r="E75">
-        <v>335.78</v>
-      </c>
-      <c r="V75">
-        <f t="shared" si="1"/>
-        <v>516.1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+      <c r="C94">
+        <v>35.630000000000003</v>
+      </c>
+      <c r="D94">
+        <v>197.35</v>
+      </c>
+      <c r="E94">
+        <v>31.16</v>
+      </c>
+      <c r="F94">
+        <v>14.1</v>
+      </c>
+      <c r="G94">
+        <v>1785.17</v>
+      </c>
+      <c r="H94">
+        <v>36.96</v>
+      </c>
+      <c r="I94">
+        <v>157.93</v>
+      </c>
+      <c r="J94">
+        <v>25.53</v>
+      </c>
+      <c r="K94">
+        <v>13.54</v>
+      </c>
+      <c r="L94">
+        <v>200.45</v>
+      </c>
+      <c r="M94">
+        <v>38.880000000000003</v>
+      </c>
+      <c r="N94">
+        <v>139.28</v>
+      </c>
+      <c r="O94">
+        <v>21.92</v>
+      </c>
+      <c r="P94">
+        <v>13.67</v>
+      </c>
+      <c r="Q94">
+        <v>144.06</v>
+      </c>
+      <c r="R94">
+        <v>36.75</v>
+      </c>
+      <c r="S94">
+        <v>143.87</v>
+      </c>
+      <c r="T94">
+        <v>24.27</v>
+      </c>
+      <c r="U94">
+        <v>13.37</v>
+      </c>
+      <c r="V94">
+        <v>98.8</v>
+      </c>
+      <c r="W94">
+        <f t="shared" si="3"/>
+        <v>3172.69</v>
+      </c>
+    </row>
+    <row r="95" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B95" t="s">
         <v>70</v>
       </c>
-      <c r="B76">
-        <v>69.61</v>
-      </c>
-      <c r="C76">
-        <v>7.93</v>
-      </c>
-      <c r="D76">
-        <v>10.48</v>
-      </c>
-      <c r="E76">
-        <v>181.52</v>
-      </c>
-      <c r="V76">
-        <f t="shared" si="1"/>
-        <v>269.54000000000002</v>
-      </c>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+      <c r="C95">
+        <v>3698</v>
+      </c>
+      <c r="W95">
+        <f t="shared" si="3"/>
+        <v>3698</v>
+      </c>
+    </row>
+    <row r="96" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B96" t="s">
         <v>71</v>
       </c>
-      <c r="B77">
-        <v>35.630000000000003</v>
-      </c>
-      <c r="C77">
-        <v>197.35</v>
-      </c>
-      <c r="D77">
-        <v>31.16</v>
-      </c>
-      <c r="E77">
-        <v>14.1</v>
-      </c>
-      <c r="F77">
-        <v>1785.17</v>
-      </c>
-      <c r="G77">
-        <v>36.96</v>
-      </c>
-      <c r="H77">
-        <v>157.93</v>
-      </c>
-      <c r="I77">
-        <v>25.53</v>
-      </c>
-      <c r="J77">
-        <v>13.54</v>
-      </c>
-      <c r="K77">
-        <v>200.45</v>
-      </c>
-      <c r="L77">
-        <v>38.880000000000003</v>
-      </c>
-      <c r="M77">
-        <v>139.28</v>
-      </c>
-      <c r="N77">
-        <v>21.92</v>
-      </c>
-      <c r="O77">
-        <v>13.67</v>
-      </c>
-      <c r="P77">
-        <v>144.06</v>
-      </c>
-      <c r="Q77">
-        <v>36.75</v>
-      </c>
-      <c r="R77">
-        <v>143.87</v>
-      </c>
-      <c r="S77">
-        <v>24.27</v>
-      </c>
-      <c r="T77">
-        <v>13.37</v>
-      </c>
-      <c r="U77">
-        <v>98.8</v>
-      </c>
-      <c r="V77">
-        <f t="shared" si="1"/>
-        <v>3172.69</v>
-      </c>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+      <c r="C96">
+        <v>1718.59</v>
+      </c>
+      <c r="W96">
+        <f t="shared" si="3"/>
+        <v>1718.59</v>
+      </c>
+    </row>
+    <row r="97" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B97" t="s">
         <v>72</v>
       </c>
-      <c r="B78">
-        <v>3698</v>
-      </c>
-      <c r="V78">
-        <f t="shared" si="1"/>
-        <v>3698</v>
-      </c>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+      <c r="C97">
+        <v>1856.94</v>
+      </c>
+      <c r="W97">
+        <f t="shared" si="3"/>
+        <v>1856.94</v>
+      </c>
+    </row>
+    <row r="98" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B98" t="s">
         <v>73</v>
       </c>
-      <c r="B79">
-        <v>1718.59</v>
-      </c>
-      <c r="V79">
-        <f t="shared" si="1"/>
-        <v>1718.59</v>
-      </c>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+      <c r="C98">
+        <v>1347.19</v>
+      </c>
+      <c r="W98">
+        <f t="shared" si="3"/>
+        <v>1347.19</v>
+      </c>
+    </row>
+    <row r="99" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B99" t="s">
         <v>74</v>
       </c>
-      <c r="B80">
-        <v>1856.94</v>
-      </c>
-      <c r="V80">
-        <f t="shared" si="1"/>
-        <v>1856.94</v>
-      </c>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+      <c r="C99">
+        <v>7775</v>
+      </c>
+      <c r="W99">
+        <f t="shared" si="3"/>
+        <v>7775</v>
+      </c>
+    </row>
+    <row r="100" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B100" t="s">
         <v>75</v>
       </c>
-      <c r="B81">
-        <v>1347.19</v>
-      </c>
-      <c r="V81">
-        <f t="shared" si="1"/>
-        <v>1347.19</v>
-      </c>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+      <c r="C100">
+        <v>5895</v>
+      </c>
+      <c r="W100">
+        <f t="shared" si="3"/>
+        <v>5895</v>
+      </c>
+    </row>
+    <row r="101" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B101" t="s">
         <v>76</v>
       </c>
-      <c r="B82">
-        <v>7775</v>
-      </c>
-      <c r="V82">
-        <f t="shared" si="1"/>
-        <v>7775</v>
-      </c>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>77</v>
-      </c>
-      <c r="B83">
-        <v>5895</v>
-      </c>
-      <c r="V83">
-        <f t="shared" si="1"/>
-        <v>5895</v>
-      </c>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+      <c r="C101">
+        <v>22245</v>
+      </c>
+      <c r="W101">
+        <f t="shared" si="3"/>
+        <v>22245</v>
+      </c>
+    </row>
+    <row r="102" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B102" t="s">
         <v>78</v>
       </c>
-      <c r="B84">
-        <v>22245</v>
-      </c>
-      <c r="V84">
-        <f t="shared" si="1"/>
-        <v>22245</v>
+      <c r="C102">
+        <f>SUM(C94:G94)</f>
+        <v>2063.41</v>
+      </c>
+      <c r="W102">
+        <f t="shared" si="3"/>
+        <v>2063.41</v>
+      </c>
+    </row>
+    <row r="103" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B103" t="s">
+        <v>79</v>
+      </c>
+      <c r="C103">
+        <f>SUM(H94:L94)+C102</f>
+        <v>2497.8199999999997</v>
+      </c>
+      <c r="W103">
+        <f t="shared" si="3"/>
+        <v>2497.8199999999997</v>
+      </c>
+    </row>
+    <row r="104" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B104" t="s">
+        <v>80</v>
+      </c>
+      <c r="C104">
+        <f>SUM(M94:Q94)+C103</f>
+        <v>2855.6299999999997</v>
+      </c>
+      <c r="W104">
+        <f t="shared" si="3"/>
+        <v>2855.6299999999997</v>
+      </c>
+    </row>
+    <row r="105" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B105" t="s">
+        <v>81</v>
+      </c>
+      <c r="C105">
+        <f>SUM(R94:V94)</f>
+        <v>317.06</v>
+      </c>
+      <c r="W105">
+        <f t="shared" si="3"/>
+        <v>317.06</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E82A1E00-E454-45F4-AFAD-2E777553BBED}">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="1"/>
+      <c r="B3" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B5" s="1">
+        <v>5808</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8784</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4881</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4517</v>
+      </c>
+      <c r="F5" s="1">
+        <v>33873</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4070</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4077</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3306.11</v>
+      </c>
+      <c r="E6" s="1">
+        <v>3331.61</v>
+      </c>
+      <c r="F6" s="1">
+        <v>18906</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="1">
+        <v>21795.549999999996</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <v>5425.1100000000006</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2535.8200000000002</v>
+      </c>
+      <c r="C8" s="1">
+        <v>720.54</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1072.75</v>
+      </c>
+      <c r="E8" s="1">
+        <v>756.71</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1799.1999999999998</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1631.9099999999999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1957.5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1742.8</v>
+      </c>
+      <c r="F9" s="1">
+        <v>13984.720000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="1">
+        <v>548.54999999999995</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1412.43</v>
+      </c>
+      <c r="D10" s="1">
+        <v>595.62</v>
+      </c>
+      <c r="E10" s="1">
+        <v>457.09</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3227.38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B11" s="1">
+        <v>260.63</v>
+      </c>
+      <c r="C11" s="1">
+        <v>154.78</v>
+      </c>
+      <c r="D11" s="1">
+        <v>227.92000000000002</v>
+      </c>
+      <c r="E11" s="1">
+        <v>118.60999999999999</v>
+      </c>
+      <c r="F11" s="1">
+        <v>516.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="1">
+        <v>69.88</v>
+      </c>
+      <c r="C12" s="1">
+        <v>131.87</v>
+      </c>
+      <c r="D12" s="1">
+        <v>74.3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>50.94</v>
+      </c>
+      <c r="F12" s="1">
+        <v>269.54000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="1">
+        <v>633.79</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1386.01</v>
+      </c>
+      <c r="D13" s="1">
+        <v>612.74</v>
+      </c>
+      <c r="E13" s="1">
+        <v>550.35</v>
+      </c>
+      <c r="F13" s="1">
+        <v>3698</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" s="1">
+        <v>318.66000000000003</v>
+      </c>
+      <c r="C14" s="1">
+        <v>541.09</v>
+      </c>
+      <c r="D14" s="1">
+        <v>316.36</v>
+      </c>
+      <c r="E14" s="1">
+        <v>890.33</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1718.59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" s="1">
+        <v>253.47</v>
+      </c>
+      <c r="C15" s="1">
+        <v>977.71</v>
+      </c>
+      <c r="D15" s="1">
+        <v>279.48</v>
+      </c>
+      <c r="E15" s="1">
+        <v>222.27</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1856.94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B16" s="1">
+        <v>94.1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>90.32</v>
+      </c>
+      <c r="D16" s="1">
+        <v>100.32</v>
+      </c>
+      <c r="E16" s="1">
+        <v>235.28</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1347.19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1074.6300000000001</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1326.15</v>
+      </c>
+      <c r="D17" s="1">
+        <v>952.26</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1097.56</v>
+      </c>
+      <c r="F17" s="1">
+        <v>7775</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1648.37</v>
+      </c>
+      <c r="C18" s="1">
+        <v>862.37</v>
+      </c>
+      <c r="D18" s="1">
+        <v>877.83</v>
+      </c>
+      <c r="E18" s="1">
+        <v>606.83000000000004</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2033.48</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1389.88</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1298.93</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2208.62</v>
+      </c>
+      <c r="F19" s="1">
+        <v>22245</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2506.9300000000003</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2507.1800000000003</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1688.3600000000001</v>
+      </c>
+      <c r="E20" s="1">
+        <v>264.14</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2063.41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="1">
+        <v>4808.8600000000006</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2945.96</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2114.9500000000003</v>
+      </c>
+      <c r="E21" s="1">
+        <v>353.79999999999995</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2497.8199999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" s="1">
+        <v>6024</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3788.15</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2755.84</v>
+      </c>
+      <c r="E22" s="1">
+        <v>458.90999999999997</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2855.6299999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="1">
+        <v>414.69000000000005</v>
+      </c>
+      <c r="C23" s="1">
+        <v>411.79999999999995</v>
+      </c>
+      <c r="D23" s="1">
+        <v>395.33000000000004</v>
+      </c>
+      <c r="E23" s="1">
+        <v>77.59</v>
+      </c>
+      <c r="F23" s="1">
+        <v>317.06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A1:F2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A5:F23">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A25">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" fitToWidth="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <webPublishItems count="1">
+    <webPublishItem id="2923" divId="timing_2923" sourceType="sheet" destinationFile="F:\hasindu2008.git\arash_paper\asm\charts\timing_table.htm" autoRepublish="1"/>
+  </webPublishItems>
+</worksheet>
 </file>